--- a/SourceCode/2024/Jan2024/Gayathri/Task30/Bank balance.xlsx
+++ b/SourceCode/2024/Jan2024/Gayathri/Task30/Bank balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natar\OneDrive\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\Jan2024\Gayathri\Task30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7D51E-592A-48CD-9A48-F47115D780E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA82B85-B5FD-46E4-B719-74F338017A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,37 +348,37 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>45</v>
       </c>
